--- a/target/test-classes/testdata/excels/RegressionTestData.xlsx
+++ b/target/test-classes/testdata/excels/RegressionTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\007LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECE31F-A6AE-4ADA-9822-BA38E90F6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89984D6-470E-42CF-A6B6-9EC8E938D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AAE269A-36AE-4A05-B59D-0356C0209B76}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
